--- a/tests/data/0812_ntgs.xlsx
+++ b/tests/data/0812_ntgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCCD34-3A2C-BB4C-B278-BC6186E82E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED8051-77E3-484C-A25A-E28971D5D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46140" yWindow="500" windowWidth="37880" windowHeight="28040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="760" windowWidth="37880" windowHeight="28040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="298">
   <si>
     <t>Version:</t>
   </si>
@@ -1633,9 +1633,6 @@
 Consider using opaque, universally unique IDs within the IRI, generated by https://www.uuidgenerator.net.</t>
   </si>
   <si>
-    <t>0.8.10</t>
-  </si>
-  <si>
     <t>Example Workbook:</t>
   </si>
   <si>
@@ -1982,6 +1979,12 @@
   </si>
   <si>
     <t>https://linked.data.gov.au/def/cox-classification/</t>
+  </si>
+  <si>
+    <t>Cox and Singer (1986) mineral deposit classification</t>
+  </si>
+  <si>
+    <t>0.8.12</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2280,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2467,9 +2470,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2708,8 +2708,8 @@
   </sheetPr>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -2781,10 +2781,10 @@
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -4217,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
@@ -4380,7 +4380,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4392,12 +4392,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>56</v>
@@ -4432,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>23</v>
@@ -4445,8 +4445,8 @@
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>291</v>
+      <c r="B5" s="51" t="s">
+        <v>296</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>54</v>
@@ -4488,7 +4488,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>155</v>
@@ -4502,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>156</v>
@@ -4528,7 +4528,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>120</v>
@@ -4542,7 +4542,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>118</v>
@@ -4592,7 +4592,7 @@
         <v>107</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>116</v>
@@ -7605,16 +7605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -7698,10 +7698,10 @@
         <v>alaskan-pge</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="20"/>
       <c r="G4" s="20"/>
@@ -7712,10 +7712,10 @@
         <v>alluvial-placer-sn</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -7725,10 +7725,10 @@
         <v>almaden-hg</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="20"/>
       <c r="K6" s="20"/>
@@ -7739,10 +7739,10 @@
         <v>alpine-type-podiform-chromite</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="61"/>
     </row>
@@ -7752,10 +7752,10 @@
         <v>anorthosite-ti</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="61"/>
     </row>
@@ -7765,10 +7765,10 @@
         <v>au-ag-te-veins</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="20"/>
     </row>
@@ -7778,10 +7778,10 @@
         <v>basaltic-cu</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="61"/>
     </row>
@@ -7791,10 +7791,10 @@
         <v>besshi-massive-sulphide</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="61"/>
     </row>
@@ -7804,10 +7804,10 @@
         <v>blackbird-co-cu</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="61"/>
     </row>
@@ -7817,10 +7817,10 @@
         <v>carbonate-hosted-asbestos</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="20"/>
     </row>
@@ -7830,10 +7830,10 @@
         <v>carbonate-hosted-pb-zn</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G14" s="20"/>
     </row>
@@ -7843,10 +7843,10 @@
         <v>carbonate-hosted-zn</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="61"/>
     </row>
@@ -7856,13 +7856,13 @@
         <v>carbonatite</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="61"/>
     </row>
@@ -7872,10 +7872,10 @@
         <v>climax-mo</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="44"/>
       <c r="G17" s="20"/>
@@ -7886,10 +7886,10 @@
         <v>comstock-epithermal-veins</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="44"/>
       <c r="G18" s="61"/>
@@ -7900,10 +7900,10 @@
         <v>creede-epithermal-veins</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="20"/>
     </row>
@@ -7913,10 +7913,10 @@
         <v>cu-skarn</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="20"/>
     </row>
@@ -7926,10 +7926,10 @@
         <v>cyprus-massive-sulphide</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="20"/>
     </row>
@@ -7939,10 +7939,10 @@
         <v>detachment-fault-related-polymetallic-deposits</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="20"/>
     </row>
@@ -7952,10 +7952,10 @@
         <v>diamond-pipes</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G23" s="20"/>
     </row>
@@ -7965,10 +7965,10 @@
         <v>diamond-placers</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="45"/>
       <c r="G24" s="20"/>
@@ -7979,10 +7979,10 @@
         <v>distal-disseminated-ag-au</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="45"/>
       <c r="G25" s="20"/>
@@ -7993,10 +7993,10 @@
         <v>duluth-cu-ni-pge</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" s="45"/>
       <c r="G26" s="20"/>
@@ -8007,10 +8007,10 @@
         <v>dunitic-ni-cu</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="45"/>
       <c r="G27" s="20"/>
@@ -8021,10 +8021,10 @@
         <v>emerald-veins</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D28" s="46"/>
       <c r="G28" s="20"/>
@@ -8035,10 +8035,10 @@
         <v>epithermal-mn</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="46"/>
       <c r="G29" s="20"/>
@@ -8049,10 +8049,10 @@
         <v>epithermal-quartz-alunite</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="46"/>
       <c r="G30" s="20"/>
@@ -8063,10 +8063,10 @@
         <v>fe-skarn</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="46"/>
       <c r="G31" s="20"/>
@@ -8077,10 +8077,10 @@
         <v>fluorspar-deposits</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="20"/>
     </row>
@@ -8090,10 +8090,10 @@
         <v>gold-in-flat-faults</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" s="46"/>
       <c r="G33" s="20"/>
@@ -8104,10 +8104,10 @@
         <v>homestake-au</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="46"/>
       <c r="G34" s="20"/>
@@ -8118,10 +8118,10 @@
         <v>hot-spring-au-ag</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="46"/>
       <c r="G35" s="20"/>
@@ -8132,10 +8132,10 @@
         <v>hot-spring-hg</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="20"/>
     </row>
@@ -8145,10 +8145,10 @@
         <v>karst-type-bauxite</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="20"/>
     </row>
@@ -8158,10 +8158,10 @@
         <v>kipushi-cu-pb-zn</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="46"/>
       <c r="G38" s="20"/>
@@ -8172,10 +8172,10 @@
         <v>komatiitic-ni-cu</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="46"/>
       <c r="G39" s="20"/>
@@ -8186,10 +8186,10 @@
         <v>lacustrine-mn</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G40" s="20"/>
     </row>
@@ -8199,10 +8199,10 @@
         <v>laterite-type-bauxite</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G41" s="20"/>
     </row>
@@ -8212,10 +8212,10 @@
         <v>lateritic-ni</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="46"/>
       <c r="G42" s="20"/>
@@ -8226,10 +8226,10 @@
         <v>low-sulphide-au-quartz-veins</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G43" s="20"/>
     </row>
@@ -8239,10 +8239,10 @@
         <v>noril'sk-cu-ni-pge</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G44" s="20"/>
     </row>
@@ -8252,10 +8252,10 @@
         <v>olympic-dam-cu-u-au</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="46"/>
       <c r="G45" s="20"/>
@@ -8266,10 +8266,10 @@
         <v>oolitic-ironstones</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G46" s="20"/>
     </row>
@@ -8279,10 +8279,10 @@
         <v>placer-au-pge</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G47" s="20"/>
     </row>
@@ -8292,10 +8292,10 @@
         <v>placer-pge-au</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D48" s="46"/>
       <c r="G48" s="20"/>
@@ -8306,10 +8306,10 @@
         <v>playa-evaporite</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="46"/>
       <c r="G49" s="20"/>
@@ -8320,10 +8320,10 @@
         <v>polymetallic-cu-pb-zn-ag-veins</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G50" s="20"/>
     </row>
@@ -8333,10 +8333,10 @@
         <v>polymetallic-replacement</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="46"/>
       <c r="G51" s="20"/>
@@ -8347,10 +8347,10 @@
         <v>porphyry-cu</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" s="46"/>
       <c r="G52" s="20"/>
@@ -8361,10 +8361,10 @@
         <v>porphyry-cu-skarn-related</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D53" s="46"/>
       <c r="G53" s="20"/>
@@ -8375,10 +8375,10 @@
         <v>porphyry-cu-au</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" s="20"/>
     </row>
@@ -8388,10 +8388,10 @@
         <v>porphyry-cu-mo</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8400,10 +8400,10 @@
         <v>porphyry-mo-low-f</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8412,10 +8412,10 @@
         <v>porphyry-sn</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8424,10 +8424,10 @@
         <v>quartz-pebble-conglomerate-u</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8436,10 +8436,10 @@
         <v>replacement-mn</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8448,10 +8448,10 @@
         <v>replacement-sn</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8460,10 +8460,10 @@
         <v>rhyolite-hosted-sn</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8472,10 +8472,10 @@
         <v>sado-epithermal-veins</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8484,10 +8484,10 @@
         <v>sandstone-u</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.2">
@@ -8496,10 +8496,10 @@
         <v>sandstone-hosted-pb-zn</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -8508,10 +8508,10 @@
         <v>sedimentary-fe-formation</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -8520,10 +8520,10 @@
         <v>sedimentary-mn</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -8532,10 +8532,10 @@
         <v>sedimentary-hosted-au-ag</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -8544,10 +8544,10 @@
         <v>sediment-hosted-cu</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -8556,10 +8556,10 @@
         <v>sediment-hosted-zn-pb</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -8568,10 +8568,10 @@
         <v>serpentine-hosted-asbestos</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -8580,10 +8580,10 @@
         <v>shoreline-placer-ti</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -8592,10 +8592,10 @@
         <v>silica-carbonate-hg</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -8604,10 +8604,10 @@
         <v>simple-sb</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -8616,10 +8616,10 @@
         <v>sn-greisen</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -8628,10 +8628,10 @@
         <v>sn-skarn</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -8640,10 +8640,10 @@
         <v>sn-veins</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C76" s="63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -8652,10 +8652,10 @@
         <v>sn-polymetallic-veins</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -8664,10 +8664,10 @@
         <v>sn-ta-pegmatites</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>solution-collapse-breccia-pipe-uranium-deposits</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,10 +8688,10 @@
         <v>stratiform-barite</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -8700,10 +8700,10 @@
         <v>stratiform-mafic-umafic-cr-bushveld</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -8712,10 +8712,10 @@
         <v>stratiform-mafic-umafic-fe-ti-v-bushveld-fe-ti-v</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -8724,10 +8724,10 @@
         <v>stratiform-mafic-umafic-ni-cu-stillwater</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -8736,10 +8736,10 @@
         <v>stratiform-mafic-umafic-pge-merensky-reef</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -8748,10 +8748,10 @@
         <v>synorogenic-synvolcanic-ni-cu</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -8760,10 +8760,10 @@
         <v>thorium-rare-earth-veins</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -8772,10 +8772,10 @@
         <v>unconformity-u-au</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -8784,10 +8784,10 @@
         <v>upwelling-type-phosphate</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C88" s="63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -8796,10 +8796,10 @@
         <v>volcanic-hosted-cu-as-sb</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C89" s="63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -8808,10 +8808,10 @@
         <v>volcanic-hosted-magnetite</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" s="63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -8820,10 +8820,10 @@
         <v>volcanogenic-iron-formation</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C91" s="63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -8832,10 +8832,10 @@
         <v>volcanogenic-massive-sulphide</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C92" s="63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -8844,10 +8844,10 @@
         <v>volcanogenic-mn</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -8856,10 +8856,10 @@
         <v>volcanogenic-u</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C94" s="63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -8868,10 +8868,10 @@
         <v>w-skarn</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -8880,10 +8880,10 @@
         <v>w-veins</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C96" s="63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -8892,10 +8892,10 @@
         <v>warm-current-type-phosphate</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C97" s="63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -8904,10 +8904,10 @@
         <v>zn-pb-skarn</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" s="63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -9857,16 +9857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -9983,7 +9983,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -9995,7 +9995,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10007,7 +10007,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10019,7 +10019,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10031,7 +10031,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,7 +10043,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10067,7 +10067,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10079,7 +10079,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10091,7 +10091,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10103,7 +10103,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10115,7 +10115,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10127,7 +10127,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10139,7 +10139,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10151,7 +10151,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10163,7 +10163,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10175,7 +10175,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,7 +10187,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10211,7 +10211,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10223,7 +10223,7 @@
         <v>22</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10247,7 +10247,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10259,7 +10259,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10271,7 +10271,7 @@
         <v>26</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10283,7 +10283,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10295,7 +10295,7 @@
         <v>28</v>
       </c>
       <c r="H31" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10307,7 +10307,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10319,7 +10319,7 @@
         <v>30</v>
       </c>
       <c r="H33" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10331,7 +10331,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10343,7 +10343,7 @@
         <v>32</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10355,7 +10355,7 @@
         <v>33</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
         <v>34</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10379,7 +10379,7 @@
         <v>35</v>
       </c>
       <c r="H38" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10391,7 +10391,7 @@
         <v>36</v>
       </c>
       <c r="H39" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10403,7 +10403,7 @@
         <v>37</v>
       </c>
       <c r="H40" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10415,7 +10415,7 @@
         <v>38</v>
       </c>
       <c r="H41" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10427,7 +10427,7 @@
         <v>39</v>
       </c>
       <c r="H42" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10439,7 +10439,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10451,7 +10451,7 @@
         <v>41</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10463,7 +10463,7 @@
         <v>42</v>
       </c>
       <c r="H45" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10475,7 +10475,7 @@
         <v>43</v>
       </c>
       <c r="H46" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10487,7 +10487,7 @@
         <v>44</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10499,7 +10499,7 @@
         <v>45</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10511,7 +10511,7 @@
         <v>46</v>
       </c>
       <c r="H49" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10523,7 +10523,7 @@
         <v>47</v>
       </c>
       <c r="H50" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10535,7 +10535,7 @@
         <v>48</v>
       </c>
       <c r="H51" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10547,7 +10547,7 @@
         <v>49</v>
       </c>
       <c r="H52" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10559,7 +10559,7 @@
         <v>50</v>
       </c>
       <c r="H53" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10571,7 +10571,7 @@
         <v>51</v>
       </c>
       <c r="H54" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10583,7 +10583,7 @@
         <v>52</v>
       </c>
       <c r="H55" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10595,7 +10595,7 @@
         <v>53</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10607,7 +10607,7 @@
         <v>54</v>
       </c>
       <c r="H57" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10619,7 +10619,7 @@
         <v>55</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
         <v>56</v>
       </c>
       <c r="H59" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10643,7 +10643,7 @@
         <v>57</v>
       </c>
       <c r="H60" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10655,7 +10655,7 @@
         <v>58</v>
       </c>
       <c r="H61" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10667,7 +10667,7 @@
         <v>59</v>
       </c>
       <c r="H62" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10679,7 +10679,7 @@
         <v>60</v>
       </c>
       <c r="H63" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10691,7 +10691,7 @@
         <v>61</v>
       </c>
       <c r="H64" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10703,7 +10703,7 @@
         <v>62</v>
       </c>
       <c r="H65" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10715,7 +10715,7 @@
         <v>63</v>
       </c>
       <c r="H66" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10727,7 +10727,7 @@
         <v>64</v>
       </c>
       <c r="H67" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
         <v>65</v>
       </c>
       <c r="H68" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10751,7 +10751,7 @@
         <v>66</v>
       </c>
       <c r="H69" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,7 +10763,7 @@
         <v>67</v>
       </c>
       <c r="H70" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10775,7 +10775,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10787,7 +10787,7 @@
         <v>69</v>
       </c>
       <c r="H72" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10799,7 +10799,7 @@
         <v>70</v>
       </c>
       <c r="H73" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10811,7 +10811,7 @@
         <v>71</v>
       </c>
       <c r="H74" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10823,7 +10823,7 @@
         <v>72</v>
       </c>
       <c r="H75" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10835,7 +10835,7 @@
         <v>73</v>
       </c>
       <c r="H76" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10847,7 +10847,7 @@
         <v>74</v>
       </c>
       <c r="H77" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10859,7 +10859,7 @@
         <v>75</v>
       </c>
       <c r="H78" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10871,7 +10871,7 @@
         <v>76</v>
       </c>
       <c r="H79" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10883,7 +10883,7 @@
         <v>77</v>
       </c>
       <c r="H80" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10895,7 +10895,7 @@
         <v>78</v>
       </c>
       <c r="H81" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10907,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="H82" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10919,7 +10919,7 @@
         <v>80</v>
       </c>
       <c r="H83" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10931,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="H84" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10943,7 +10943,7 @@
         <v>82</v>
       </c>
       <c r="H85" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10955,7 +10955,7 @@
         <v>83</v>
       </c>
       <c r="H86" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10967,7 +10967,7 @@
         <v>84</v>
       </c>
       <c r="H87" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10979,7 +10979,7 @@
         <v>85</v>
       </c>
       <c r="H88" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -10991,7 +10991,7 @@
         <v>86</v>
       </c>
       <c r="H89" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11003,7 +11003,7 @@
         <v>87</v>
       </c>
       <c r="H90" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11015,7 +11015,7 @@
         <v>88</v>
       </c>
       <c r="H91" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11027,7 +11027,7 @@
         <v>89</v>
       </c>
       <c r="H92" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11039,7 +11039,7 @@
         <v>90</v>
       </c>
       <c r="H93" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11051,7 +11051,7 @@
         <v>91</v>
       </c>
       <c r="H94" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11063,7 +11063,7 @@
         <v>92</v>
       </c>
       <c r="H95" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11075,7 +11075,7 @@
         <v>93</v>
       </c>
       <c r="H96" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11087,7 +11087,7 @@
         <v>94</v>
       </c>
       <c r="H97" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -11099,7 +11099,7 @@
         <v>95</v>
       </c>
       <c r="H98" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -11140,13 +11140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -12517,7 +12517,7 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12530,11 +12530,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -12561,13 +12561,13 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>294</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -12645,11 +12645,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
